--- a/Export.xlsx
+++ b/Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billy\Desktop\afl-dashboard-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5359E7DA-67E1-4CE1-BB4D-FA96C498A701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BD0B4BD-565D-45AE-AE2D-F445E099E842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{E91998BF-955D-4966-9651-07154877F528}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{795DF3C3-9734-4181-A21B-94216C2C3E54}"/>
   </bookViews>
   <sheets>
     <sheet name="Adelaide VS Geelong" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="243">
   <si>
     <t>ROUND 5</t>
   </si>
@@ -82,19 +82,28 @@
     <t>➖</t>
   </si>
   <si>
+    <t>Shaun Mannagh</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>Taylor Walker</t>
+  </si>
+  <si>
     <t>Brad Close</t>
   </si>
   <si>
-    <t>Taylor Walker</t>
+    <t>Lachlan Sholl</t>
   </si>
   <si>
     <t>Max Holmes</t>
   </si>
   <si>
-    <t>Lachlan Sholl</t>
-  </si>
-  <si>
-    <t>✅</t>
+    <t>Lachlan Murphy</t>
+  </si>
+  <si>
+    <t>❌</t>
   </si>
   <si>
     <t>Tyson Stengle</t>
@@ -106,45 +115,39 @@
     <t>Oliver Henry</t>
   </si>
   <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>2+ Odds</t>
+  </si>
+  <si>
+    <t>Sid Draper</t>
+  </si>
+  <si>
     <t>Darcy Fogarty</t>
   </si>
   <si>
+    <t>Jeremy Cameron</t>
+  </si>
+  <si>
+    <t>Daniel Curtin</t>
+  </si>
+  <si>
+    <t>Shannon Neale</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>3+ Odds</t>
+  </si>
+  <si>
+    <t>James Peatling</t>
+  </si>
+  <si>
     <t>Oliver Dempsey</t>
   </si>
   <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>2+ Odds</t>
-  </si>
-  <si>
-    <t>Sid Draper</t>
-  </si>
-  <si>
-    <t>Ted Clohesy</t>
-  </si>
-  <si>
-    <t>Shannon Neale</t>
-  </si>
-  <si>
-    <t>Daniel Curtin</t>
-  </si>
-  <si>
-    <t>Jeremy Cameron</t>
-  </si>
-  <si>
-    <t>3+</t>
-  </si>
-  <si>
-    <t>3+ Odds</t>
-  </si>
-  <si>
-    <t>James Peatling</t>
-  </si>
-  <si>
-    <t>❌</t>
-  </si>
-  <si>
     <t>Ben Keays</t>
   </si>
   <si>
@@ -196,21 +199,21 @@
     <t>Darcy Cameron</t>
   </si>
   <si>
+    <t>Tom Hanily</t>
+  </si>
+  <si>
+    <t>Jack Crisp</t>
+  </si>
+  <si>
+    <t>Isaac Heeney</t>
+  </si>
+  <si>
+    <t>Lachie Schultz</t>
+  </si>
+  <si>
     <t>Riley Bice</t>
   </si>
   <si>
-    <t>Jack Crisp</t>
-  </si>
-  <si>
-    <t>Isaac Heeney</t>
-  </si>
-  <si>
-    <t>Lachie Schultz</t>
-  </si>
-  <si>
-    <t>Tom Hanily</t>
-  </si>
-  <si>
     <t>Patrick Lipinski</t>
   </si>
   <si>
@@ -229,12 +232,12 @@
     <t>Chad Warner</t>
   </si>
   <si>
+    <t>Tim Membrey</t>
+  </si>
+  <si>
     <t>Joel Amartey</t>
   </si>
   <si>
-    <t>Tim Membrey</t>
-  </si>
-  <si>
     <t>Isaac Quaynor</t>
   </si>
   <si>
@@ -244,12 +247,12 @@
     <t>James Rowbottom</t>
   </si>
   <si>
+    <t>Justin McInerney</t>
+  </si>
+  <si>
     <t>Harry Perryman</t>
   </si>
   <si>
-    <t>Justin McInerney</t>
-  </si>
-  <si>
     <t>Tom Papley</t>
   </si>
   <si>
@@ -271,30 +274,30 @@
     <t>VS North Melbourne</t>
   </si>
   <si>
+    <t>Tristan Xerri</t>
+  </si>
+  <si>
+    <t>Joel Jeffrey</t>
+  </si>
+  <si>
+    <t>Jack Darling</t>
+  </si>
+  <si>
+    <t>Ethan Read</t>
+  </si>
+  <si>
     <t>Jacob Konstanty</t>
   </si>
   <si>
-    <t>Joel Jeffrey</t>
-  </si>
-  <si>
-    <t>Tristan Xerri</t>
-  </si>
-  <si>
     <t>Ben Ainsworth</t>
   </si>
   <si>
-    <t>Jack Darling</t>
+    <t>Tom Powell</t>
   </si>
   <si>
     <t>Daniel Rioli</t>
   </si>
   <si>
-    <t>Tom Powell</t>
-  </si>
-  <si>
-    <t>Ethan Read</t>
-  </si>
-  <si>
     <t>Cameron Zurhaar</t>
   </si>
   <si>
@@ -307,36 +310,39 @@
     <t>Charlie Comben</t>
   </si>
   <si>
+    <t>Luke Parker</t>
+  </si>
+  <si>
+    <t>Mac Andrew</t>
+  </si>
+  <si>
     <t>Nick Larkey</t>
   </si>
   <si>
-    <t>Luke Parker</t>
-  </si>
-  <si>
-    <t>Mac Andrew</t>
+    <t>Jed Walter</t>
+  </si>
+  <si>
+    <t>Aidan Corr</t>
+  </si>
+  <si>
+    <t>Darcy Tucker</t>
+  </si>
+  <si>
+    <t>Alex Sexton</t>
+  </si>
+  <si>
+    <t>Luke Davies-Uniacke</t>
+  </si>
+  <si>
+    <t>Sam Flanders</t>
+  </si>
+  <si>
+    <t>Paul Curtis</t>
   </si>
   <si>
     <t>Ben Long</t>
   </si>
   <si>
-    <t>Aidan Corr</t>
-  </si>
-  <si>
-    <t>Darcy Tucker</t>
-  </si>
-  <si>
-    <t>Alex Sexton</t>
-  </si>
-  <si>
-    <t>Luke Davies-Uniacke</t>
-  </si>
-  <si>
-    <t>Sam Flanders</t>
-  </si>
-  <si>
-    <t>Paul Curtis</t>
-  </si>
-  <si>
     <t>Carlton VS West Coast</t>
   </si>
   <si>
@@ -355,57 +361,63 @@
     <t>Charlie Curnow</t>
   </si>
   <si>
+    <t>Tom Gross</t>
+  </si>
+  <si>
+    <t>Patrick Cripps</t>
+  </si>
+  <si>
     <t>Ryan Maric</t>
   </si>
   <si>
-    <t>Patrick Cripps</t>
+    <t>Jesse Motlop</t>
   </si>
   <si>
     <t>Matthew Owies</t>
   </si>
   <si>
-    <t>Jesse Motlop</t>
+    <t>Oliver Hollands</t>
+  </si>
+  <si>
+    <t>Tyrell Dewar</t>
+  </si>
+  <si>
+    <t>Adam Cerra</t>
   </si>
   <si>
     <t>Jamie Cripps</t>
   </si>
   <si>
-    <t>Adam Cerra</t>
+    <t>Archer Reid</t>
+  </si>
+  <si>
+    <t>Oscar Allen</t>
+  </si>
+  <si>
+    <t>Sam Walsh</t>
+  </si>
+  <si>
+    <t>Zac Williams</t>
+  </si>
+  <si>
+    <t>Lachie Fogarty</t>
+  </si>
+  <si>
+    <t>Liam Ryan</t>
+  </si>
+  <si>
+    <t>Tyler Brockman</t>
+  </si>
+  <si>
+    <t>Bailey Williams</t>
+  </si>
+  <si>
+    <t>Blake Acres</t>
   </si>
   <si>
     <t>Liam Baker</t>
   </si>
   <si>
-    <t>Blake Acres</t>
-  </si>
-  <si>
-    <t>Tyrell Dewar</t>
-  </si>
-  <si>
-    <t>Archer Reid</t>
-  </si>
-  <si>
-    <t>Oscar Allen</t>
-  </si>
-  <si>
-    <t>Sam Walsh</t>
-  </si>
-  <si>
-    <t>Zac Williams</t>
-  </si>
-  <si>
-    <t>Lachie Fogarty</t>
-  </si>
-  <si>
-    <t>Liam Ryan</t>
-  </si>
-  <si>
-    <t>Tyler Brockman</t>
-  </si>
-  <si>
-    <t>Bailey Williams</t>
-  </si>
-  <si>
     <t>George Hewett</t>
   </si>
   <si>
@@ -445,33 +457,36 @@
     <t>Logan Morris</t>
   </si>
   <si>
+    <t>Sam Darcy</t>
+  </si>
+  <si>
+    <t>Zac Bailey</t>
+  </si>
+  <si>
     <t>Tom Liberatore</t>
   </si>
   <si>
-    <t>Zac Bailey</t>
-  </si>
-  <si>
-    <t>Sam Darcy</t>
-  </si>
-  <si>
     <t>Eric Hipwood</t>
   </si>
   <si>
+    <t>Ryley Sanders</t>
+  </si>
+  <si>
+    <t>Hugh McCluggage</t>
+  </si>
+  <si>
+    <t>Rhylee West</t>
+  </si>
+  <si>
     <t>Lachie Neale</t>
   </si>
   <si>
-    <t>Rhylee West</t>
+    <t>Oskar Baker</t>
   </si>
   <si>
     <t>James Harmes</t>
   </si>
   <si>
-    <t>Hugh McCluggage</t>
-  </si>
-  <si>
-    <t>Oskar Baker</t>
-  </si>
-  <si>
     <t>Cam Rayner</t>
   </si>
   <si>
@@ -490,7 +505,7 @@
     <t>VS Melbourne</t>
   </si>
   <si>
-    <t>Jack Henderson</t>
+    <t>Harvey Langford</t>
   </si>
   <si>
     <t>Xavier Duursma</t>
@@ -502,7 +517,7 @@
     <t>Jye Menzie</t>
   </si>
   <si>
-    <t>Harvey Langford</t>
+    <t>Kysaiah Pickett</t>
   </si>
   <si>
     <t>Isaac Kako</t>
@@ -523,18 +538,12 @@
     <t>Kade Chandler</t>
   </si>
   <si>
-    <t>Max Gawn</t>
-  </si>
-  <si>
     <t>Nate Caddy</t>
   </si>
   <si>
     <t>Zach Merrett</t>
   </si>
   <si>
-    <t>Daniel Turner</t>
-  </si>
-  <si>
     <t>Sam Draper</t>
   </si>
   <si>
@@ -553,28 +562,28 @@
     <t>VS Richmond</t>
   </si>
   <si>
+    <t>Sam Lalor</t>
+  </si>
+  <si>
+    <t>Isaiah Dudley</t>
+  </si>
+  <si>
     <t>Tom Lynch</t>
   </si>
   <si>
-    <t>Isaiah Dudley</t>
-  </si>
-  <si>
-    <t>Sam Lalor</t>
-  </si>
-  <si>
-    <t>Patrick Voss</t>
+    <t>Jye Amiss</t>
   </si>
   <si>
     <t>Jacob Hopper</t>
   </si>
   <si>
-    <t>Jye Amiss</t>
+    <t>Michael Frederick</t>
   </si>
   <si>
     <t>Tim Taranto</t>
   </si>
   <si>
-    <t>Michael Frederick</t>
+    <t>Bailey Banfield</t>
   </si>
   <si>
     <t>Kamdyn McIntosh</t>
@@ -583,18 +592,15 @@
     <t>Shai Bolton</t>
   </si>
   <si>
+    <t>Harry Armstrong</t>
+  </si>
+  <si>
+    <t>Steely Green</t>
+  </si>
+  <si>
     <t>Murphy Reid</t>
   </si>
   <si>
-    <t>Harry Armstrong</t>
-  </si>
-  <si>
-    <t>Bailey Banfield</t>
-  </si>
-  <si>
-    <t>Steely Green</t>
-  </si>
-  <si>
     <t>Seth Campbell</t>
   </si>
   <si>
@@ -646,51 +652,51 @@
     <t>Jack Higgins</t>
   </si>
   <si>
+    <t>Toby Greene</t>
+  </si>
+  <si>
+    <t>Lance Collard</t>
+  </si>
+  <si>
     <t>Jake Stringer</t>
   </si>
   <si>
     <t>Cooper Sharman</t>
   </si>
   <si>
-    <t>Toby Greene</t>
+    <t>Darcy Jones</t>
+  </si>
+  <si>
+    <t>Jake Riccardi</t>
+  </si>
+  <si>
+    <t>Stephen Coniglio</t>
+  </si>
+  <si>
+    <t>Mitch Owens</t>
   </si>
   <si>
     <t>Mason Wood</t>
   </si>
   <si>
-    <t>Darcy Jones</t>
-  </si>
-  <si>
-    <t>Lance Collard</t>
-  </si>
-  <si>
-    <t>Stephen Coniglio</t>
-  </si>
-  <si>
-    <t>Mitch Owens</t>
+    <t>Rowan Marshall</t>
+  </si>
+  <si>
+    <t>Bradley Hill</t>
+  </si>
+  <si>
+    <t>Finn Callaghan</t>
+  </si>
+  <si>
+    <t>Jack Sinclair</t>
+  </si>
+  <si>
+    <t>Nasiah Wanganeen-Milera</t>
   </si>
   <si>
     <t>Toby Bedford</t>
   </si>
   <si>
-    <t>Rowan Marshall</t>
-  </si>
-  <si>
-    <t>Xavier OHalloran</t>
-  </si>
-  <si>
-    <t>Nasiah Wanganeen-Milera</t>
-  </si>
-  <si>
-    <t>Finn Callaghan</t>
-  </si>
-  <si>
-    <t>Bradley Hill</t>
-  </si>
-  <si>
-    <t>Jack Sinclair</t>
-  </si>
-  <si>
     <t>Port Adelaide VS Hawthorn</t>
   </si>
   <si>
@@ -712,43 +718,46 @@
     <t>Mabior Chol</t>
   </si>
   <si>
+    <t>Zak Butters</t>
+  </si>
+  <si>
+    <t>Jai Newcombe</t>
+  </si>
+  <si>
     <t>Sam Powell-Pepper</t>
   </si>
   <si>
-    <t>Jai Newcombe</t>
-  </si>
-  <si>
-    <t>Joe Richards</t>
-  </si>
-  <si>
     <t>Jack Ginnivan</t>
   </si>
   <si>
+    <t>Ollie Lord</t>
+  </si>
+  <si>
+    <t>Dylan Moore</t>
+  </si>
+  <si>
     <t>Jordon Sweet</t>
   </si>
   <si>
-    <t>Dylan Moore</t>
+    <t>Nick Watson</t>
+  </si>
+  <si>
+    <t>Massimo DAmbrosio</t>
   </si>
   <si>
     <t>Willie Rioli</t>
   </si>
   <si>
-    <t>Nick Watson</t>
-  </si>
-  <si>
-    <t>Massimo DAmbrosio</t>
-  </si>
-  <si>
     <t>Mitch Georgiades</t>
   </si>
   <si>
     <t>Jack Gunston</t>
   </si>
   <si>
+    <t>Finn Maginness</t>
+  </si>
+  <si>
     <t>Jason Horne-Francis</t>
-  </si>
-  <si>
-    <t>Finn Maginness</t>
   </si>
   <si>
     <t>Conor Nash</t>
@@ -1689,7 +1698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E002EE39-52B4-4E03-9BF4-DA0C1D55A6EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D47D07F-E937-42E1-A516-7CD5AE79C7C3}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1788,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="13">
-        <v>8.4033613445378297E-2</v>
+        <v>6.6115702479338845E-2</v>
       </c>
       <c r="D4" s="14">
         <v>1.29</v>
@@ -1803,13 +1812,13 @@
         <v>12</v>
       </c>
       <c r="J4" s="13">
-        <v>0.1785714285714286</v>
+        <v>0.1692307692307693</v>
       </c>
       <c r="K4" s="14">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -1817,7 +1826,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="13">
         <v>5.6074766355139971E-2</v>
@@ -1832,13 +1841,13 @@
       <c r="G5" s="11"/>
       <c r="H5" s="35"/>
       <c r="I5" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="13">
-        <v>0.14832535885167464</v>
+        <v>0.1619718309859155</v>
       </c>
       <c r="K5" s="14">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>11</v>
@@ -1849,16 +1858,16 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13">
-        <v>4.5627376425855459E-2</v>
+        <v>2.6119402985074647E-2</v>
       </c>
       <c r="D6" s="14">
         <v>2.75</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
@@ -1867,10 +1876,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="13">
-        <v>7.5000000000000178E-2</v>
+        <v>0.13207547169811318</v>
       </c>
       <c r="K6" s="14">
-        <v>1.29</v>
+        <v>2.4</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>11</v>
@@ -1884,25 +1893,25 @@
         <v>18</v>
       </c>
       <c r="C7" s="13">
-        <v>-9.9099099099099197E-2</v>
+        <v>-5.7017543859649078E-2</v>
       </c>
       <c r="D7" s="14">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="35"/>
       <c r="I7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="13">
-        <v>7.4380165289256173E-2</v>
+        <v>7.5000000000000178E-2</v>
       </c>
       <c r="K7" s="14">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>11</v>
@@ -1913,13 +1922,13 @@
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="18">
-        <v>-0.16793893129770987</v>
+        <v>-0.12280701754385959</v>
       </c>
       <c r="D8" s="19">
-        <v>1.0900000000000001</v>
+        <v>4</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>11</v>
@@ -1928,13 +1937,13 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
       <c r="I8" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="18">
-        <v>6.2857142857142945E-2</v>
+        <v>5.6910569105691033E-2</v>
       </c>
       <c r="K8" s="19">
-        <v>1.86</v>
+        <v>1.3</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>11</v>
@@ -1960,7 +1969,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -1969,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>8</v>
@@ -1977,7 +1986,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -1986,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>9</v>
@@ -1997,10 +2006,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13">
-        <v>1.6666666666666665</v>
+        <v>1</v>
       </c>
       <c r="D11" s="14">
         <v>8</v>
@@ -2012,16 +2021,16 @@
       <c r="G11" s="11"/>
       <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J11" s="13">
-        <v>0.30681818181818166</v>
+        <v>0.44230769230769229</v>
       </c>
       <c r="K11" s="14">
-        <v>2.2999999999999998</v>
+        <v>3.75</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="16"/>
@@ -2032,25 +2041,25 @@
         <v>10</v>
       </c>
       <c r="C12" s="13">
-        <v>0.29834254143646399</v>
+        <v>0.27717391304347827</v>
       </c>
       <c r="D12" s="14">
         <v>2.35</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="43"/>
       <c r="I12" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="13">
-        <v>0.26903553299492389</v>
+        <v>0.32183908045976994</v>
       </c>
       <c r="K12" s="14">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>11</v>
@@ -2061,28 +2070,28 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="13">
-        <v>0.23239436619718323</v>
+        <v>0.24113475177304977</v>
       </c>
       <c r="D13" s="14">
         <v>1.75</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
       <c r="H13" s="43"/>
       <c r="I13" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J13" s="13">
-        <v>0.10000000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="K13" s="14">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>11</v>
@@ -2093,10 +2102,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" s="13">
-        <v>-8.3333333333333259E-2</v>
+        <v>-7.7844311377245456E-2</v>
       </c>
       <c r="D14" s="14">
         <v>1.54</v>
@@ -2108,16 +2117,16 @@
       <c r="G14" s="11"/>
       <c r="H14" s="43"/>
       <c r="I14" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="13">
-        <v>9.375E-2</v>
+        <v>5.3333333333333455E-2</v>
       </c>
       <c r="K14" s="14">
-        <v>2.8</v>
+        <v>1.58</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -2125,10 +2134,10 @@
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="18">
-        <v>-0.24</v>
+        <v>-0.30909090909090908</v>
       </c>
       <c r="D15" s="19">
         <v>3.8</v>
@@ -2140,16 +2149,16 @@
       <c r="G15" s="11"/>
       <c r="H15" s="44"/>
       <c r="I15" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="18">
-        <v>6.7567567567567544E-2</v>
+        <v>4.8689138576778923E-2</v>
       </c>
       <c r="K15" s="19">
-        <v>1.58</v>
+        <v>2.8</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -2172,7 +2181,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -2181,7 +2190,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>8</v>
@@ -2189,7 +2198,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -2198,7 +2207,7 @@
         <v>6</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>9</v>
@@ -2209,13 +2218,13 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C18" s="13">
-        <v>0.53333333333333344</v>
+        <v>0.72500000000000009</v>
       </c>
       <c r="D18" s="14">
-        <v>23</v>
+        <v>3.45</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>11</v>
@@ -2224,7 +2233,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="43"/>
       <c r="I18" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J18" s="13">
         <v>0.86666666666666647</v>
@@ -2233,7 +2242,7 @@
         <v>5.6</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -2241,13 +2250,13 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C19" s="13">
-        <v>0.39999999999999991</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="D19" s="14">
-        <v>5.6</v>
+        <v>23</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>11</v>
@@ -2256,7 +2265,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J19" s="13">
         <v>0.58333333333333326</v>
@@ -2273,13 +2282,13 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="13">
-        <v>0.15000000000000013</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="D20" s="14">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>11</v>
@@ -2288,7 +2297,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="13">
         <v>0.39999999999999991</v>
@@ -2297,7 +2306,7 @@
         <v>2.8</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -2305,7 +2314,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13">
         <v>-8.333333333333337E-2</v>
@@ -2314,13 +2323,13 @@
         <v>2.75</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="43"/>
       <c r="I21" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J21" s="13">
         <v>0.30000000000000004</v>
@@ -2337,7 +2346,7 @@
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="18">
         <v>-0.4</v>
@@ -2352,16 +2361,16 @@
       <c r="G22" s="11"/>
       <c r="H22" s="44"/>
       <c r="I22" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J22" s="18">
-        <v>-4.166666666666663E-2</v>
+        <v>-7.999999999999996E-2</v>
       </c>
       <c r="K22" s="19">
         <v>23</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -2387,13 +2396,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>6</v>
@@ -2404,13 +2413,13 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>6</v>
@@ -2421,7 +2430,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="12">
         <v>4</v>
@@ -2430,13 +2439,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="28">
-        <v>3.1900000000000004</v>
+        <v>3.25</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="37"/>
       <c r="I25" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J25" s="12">
         <v>4</v>
@@ -2445,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="L25" s="28">
-        <v>0.82250000000000023</v>
+        <v>0.85250000000000026</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -2453,7 +2462,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
@@ -2462,13 +2471,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="28">
-        <v>1.2850000000000001</v>
+        <v>1.3224999999999998</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="37"/>
       <c r="I26" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26" s="12">
         <v>4</v>
@@ -2477,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="28">
-        <v>0.12999999999999989</v>
+        <v>0.12000000000000011</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -2485,7 +2494,7 @@
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="29">
         <v>4</v>
@@ -2494,13 +2503,13 @@
         <v>3</v>
       </c>
       <c r="E27" s="30">
-        <v>1.145</v>
+        <v>1.1825000000000001</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="37"/>
       <c r="I27" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J27" s="29">
         <v>5</v>
@@ -2509,17 +2518,17 @@
         <v>4</v>
       </c>
       <c r="L27" s="30">
-        <v>-3.2000000000000028E-2</v>
+        <v>-1.6000000000000014E-2</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C28" s="8">
         <v>4</v>
@@ -2528,15 +2537,15 @@
         <v>2</v>
       </c>
       <c r="E28" s="23">
-        <v>-0.16000000000000003</v>
+        <v>-0.16500000000000004</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J28" s="8">
         <v>4</v>
@@ -2545,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="23">
-        <v>3.0549999999999997</v>
+        <v>3.1100000000000003</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -2553,7 +2562,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="12">
         <v>4</v>
@@ -2562,13 +2571,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="37"/>
       <c r="I29" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J29" s="12">
         <v>4</v>
@@ -2577,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="L29" s="28">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -2585,7 +2594,7 @@
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="17">
         <v>4</v>
@@ -2594,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="39"/>
       <c r="I30" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J30" s="17">
         <v>5</v>
@@ -2609,17 +2618,17 @@
         <v>2</v>
       </c>
       <c r="L30" s="31">
-        <v>-0.21199999999999997</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C31" s="32">
         <v>4</v>
@@ -2633,10 +2642,10 @@
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J31" s="32">
         <v>4</v>
@@ -2645,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="33">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -2653,7 +2662,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12">
         <v>4</v>
@@ -2662,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="37"/>
       <c r="I32" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J32" s="12">
         <v>4</v>
@@ -2685,7 +2694,7 @@
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="17">
         <v>4</v>
@@ -2694,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="39"/>
       <c r="I33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33" s="17">
         <v>4</v>
@@ -2709,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -2736,7 +2745,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -2851,7 +2860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C787F2-EB55-4592-AB34-A6809AC22FAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4783E236-2FE9-4431-857A-2723D88969DD}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2865,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2883,7 +2892,7 @@
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5">
         <v>0.61349693251533743</v>
@@ -2900,7 +2909,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" s="7">
         <v>0.4366812227074236</v>
@@ -2922,7 +2931,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -2939,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -2947,31 +2956,31 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="13">
-        <v>0.61290322580645173</v>
+        <v>0.58730158730158721</v>
       </c>
       <c r="D4" s="14">
         <v>4</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="35"/>
       <c r="I4" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="13">
-        <v>0.7021276595744681</v>
+        <v>0.65975103734439822</v>
       </c>
       <c r="K4" s="14">
         <v>4</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -2979,28 +2988,28 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="13">
-        <v>0.13445378151260523</v>
+        <v>0.1203319502074689</v>
       </c>
       <c r="D5" s="14">
         <v>2.7</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="35"/>
       <c r="I5" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" s="13">
-        <v>0.5</v>
+        <v>0.13533834586466154</v>
       </c>
       <c r="K5" s="14">
-        <v>3</v>
+        <v>1.51</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>11</v>
@@ -3011,10 +3020,10 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="13">
-        <v>0.12903225806451601</v>
+        <v>0.11111111111111094</v>
       </c>
       <c r="D6" s="14">
         <v>2.8</v>
@@ -3026,10 +3035,10 @@
       <c r="G6" s="11"/>
       <c r="H6" s="35"/>
       <c r="I6" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="13">
-        <v>0.12403100775193798</v>
+        <v>0.10687022900763354</v>
       </c>
       <c r="K6" s="14">
         <v>1.45</v>
@@ -3043,10 +3052,10 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="13">
-        <v>-7.0921985815602939E-3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="14">
         <v>1.4</v>
@@ -3058,13 +3067,13 @@
       <c r="G7" s="11"/>
       <c r="H7" s="35"/>
       <c r="I7" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="13">
-        <v>6.6666666666665986E-3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="14">
-        <v>1.51</v>
+        <v>3</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>11</v>
@@ -3075,25 +3084,25 @@
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="18">
-        <v>-4.0000000000000036E-2</v>
+        <v>-5.5118110236220486E-2</v>
       </c>
       <c r="D8" s="19">
         <v>2.4</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
       <c r="I8" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="18">
-        <v>-3.8167938931297773E-2</v>
+        <v>-3.0769230769230771E-2</v>
       </c>
       <c r="K8" s="19">
         <v>1.26</v>
@@ -3122,7 +3131,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -3131,15 +3140,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -3148,10 +3157,10 @@
         <v>6</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -3159,25 +3168,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="13">
-        <v>9.4339622641509413E-2</v>
+        <v>0.11969111969111967</v>
       </c>
       <c r="D11" s="14">
         <v>2.9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="13">
-        <v>1.2488755622188905</v>
+        <v>1.1961932650073206</v>
       </c>
       <c r="K11" s="14">
         <v>15</v>
@@ -3191,25 +3200,25 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="13">
-        <v>7.7844311377245567E-2</v>
+        <v>6.5088757396449815E-2</v>
       </c>
       <c r="D12" s="14">
         <v>1.8</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="43"/>
       <c r="I12" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" s="13">
-        <v>0.49038461538461542</v>
+        <v>0.4691943127962086</v>
       </c>
       <c r="K12" s="14">
         <v>3.1</v>
@@ -3223,10 +3232,10 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="13">
-        <v>4.7619047619047672E-2</v>
+        <v>2.8037383177570208E-2</v>
       </c>
       <c r="D13" s="14">
         <v>2.2000000000000002</v>
@@ -3238,16 +3247,16 @@
       <c r="G13" s="11"/>
       <c r="H13" s="43"/>
       <c r="I13" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J13" s="13">
-        <v>-9.7744360902255689E-2</v>
+        <v>-7.4999999999999956E-2</v>
       </c>
       <c r="K13" s="14">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -3255,10 +3264,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13">
-        <v>0</v>
+        <v>-1.6393442622950838E-2</v>
       </c>
       <c r="D14" s="14">
         <v>15</v>
@@ -3270,16 +3279,16 @@
       <c r="G14" s="11"/>
       <c r="H14" s="43"/>
       <c r="I14" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J14" s="13">
-        <v>-0.17981072555205047</v>
+        <v>-7.6923076923076983E-2</v>
       </c>
       <c r="K14" s="14">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -3287,10 +3296,10 @@
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="18">
-        <v>-2.5974025974025983E-2</v>
+        <v>-3.8461538461538436E-2</v>
       </c>
       <c r="D15" s="19">
         <v>15</v>
@@ -3305,10 +3314,10 @@
         <v>61</v>
       </c>
       <c r="J15" s="18">
-        <v>-0.2376681614349776</v>
+        <v>-0.15584415584415579</v>
       </c>
       <c r="K15" s="19">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>11</v>
@@ -3334,7 +3343,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -3343,15 +3352,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -3360,10 +3369,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -3371,7 +3380,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="13">
         <v>0.16666666666666674</v>
@@ -3386,7 +3395,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="43"/>
       <c r="I18" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J18" s="13">
         <v>0.60000000000000009</v>
@@ -3403,7 +3412,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13">
         <v>-6.25E-2</v>
@@ -3412,13 +3421,13 @@
         <v>7.5</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19" s="13">
         <v>-6.6666666666666763E-2</v>
@@ -3435,7 +3444,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="13">
         <v>-0.20000000000000007</v>
@@ -3450,10 +3459,10 @@
       <c r="G20" s="11"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" s="13">
-        <v>-0.35</v>
+        <v>-0.36585365853658536</v>
       </c>
       <c r="K20" s="14">
         <v>26</v>
@@ -3482,7 +3491,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="43"/>
       <c r="I21" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J21" s="13">
         <v>-0.46666666666666667</v>
@@ -3499,10 +3508,10 @@
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="18">
-        <v>-0.31578947368421051</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="D22" s="19">
         <v>26</v>
@@ -3514,7 +3523,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="44"/>
       <c r="I22" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J22" s="18">
         <v>-0.53333333333333333</v>
@@ -3523,7 +3532,7 @@
         <v>7</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -3549,13 +3558,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>6</v>
@@ -3566,13 +3575,13 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>6</v>
@@ -3583,7 +3592,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="12">
         <v>5</v>
@@ -3592,13 +3601,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="28">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="37"/>
       <c r="I25" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J25" s="12">
         <v>4</v>
@@ -3607,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="28">
-        <v>4.3324999999999996</v>
+        <v>4.4175000000000004</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -3615,7 +3624,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
@@ -3624,13 +3633,13 @@
         <v>4</v>
       </c>
       <c r="E26" s="28">
-        <v>1.38</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="37"/>
       <c r="I26" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J26" s="12">
         <v>5</v>
@@ -3639,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="28">
-        <v>1.1419999999999999</v>
+        <v>1.1720000000000002</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -3647,16 +3656,16 @@
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C27" s="29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="30">
-        <v>0.72166666666666668</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
@@ -3678,10 +3687,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="8">
         <v>6</v>
@@ -3690,15 +3699,15 @@
         <v>1</v>
       </c>
       <c r="E28" s="23">
-        <v>4.166666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J28" s="8">
         <v>5</v>
@@ -3707,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="23">
-        <v>0.26800000000000002</v>
+        <v>0.23199999999999998</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -3715,7 +3724,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="12">
         <v>5</v>
@@ -3724,13 +3733,13 @@
         <v>4</v>
       </c>
       <c r="E29" s="28">
-        <v>1.1200000000000001</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="37"/>
       <c r="I29" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J29" s="12">
         <v>4</v>
@@ -3747,7 +3756,7 @@
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="17">
         <v>5</v>
@@ -3756,13 +3765,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="31">
-        <v>0.48799999999999999</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="39"/>
       <c r="I30" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J30" s="17">
         <v>5</v>
@@ -3771,17 +3780,17 @@
         <v>2</v>
       </c>
       <c r="L30" s="31">
-        <v>-0.16799999999999993</v>
+        <v>-0.15600000000000003</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="32">
         <v>6</v>
@@ -3790,15 +3799,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="33">
-        <v>9.3333333333333339</v>
+        <v>9.5</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J31" s="32">
         <v>5</v>
@@ -3815,7 +3824,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="12">
         <v>5</v>
@@ -3830,7 +3839,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="37"/>
       <c r="I32" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J32" s="12">
         <v>4</v>
@@ -3847,7 +3856,7 @@
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="17">
         <v>4</v>
@@ -3862,7 +3871,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="39"/>
       <c r="I33" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J33" s="17">
         <v>5</v>
@@ -4013,7 +4022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEFB37E-5670-41F7-BA9C-29B6E6577A2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6CBEFC-08B5-4F86-B7DB-040D77649787}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4045,7 +4054,7 @@
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5">
         <v>0.25641025641025644</v>
@@ -4062,7 +4071,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L2" s="7">
         <v>0.79365079365079361</v>
@@ -4084,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -4101,7 +4110,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -4109,13 +4118,13 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="13">
-        <v>0.33333333333333326</v>
+        <v>0.125</v>
       </c>
       <c r="D4" s="14">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>11</v>
@@ -4124,16 +4133,16 @@
       <c r="G4" s="11"/>
       <c r="H4" s="35"/>
       <c r="I4" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" s="13">
-        <v>0.53846153846153832</v>
+        <v>0.4814814814814814</v>
       </c>
       <c r="K4" s="14">
         <v>4</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -4141,13 +4150,13 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="13">
-        <v>0.15015974440894575</v>
+        <v>8.6614173228346303E-2</v>
       </c>
       <c r="D5" s="14">
-        <v>3.6</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>11</v>
@@ -4156,13 +4165,13 @@
       <c r="G5" s="11"/>
       <c r="H5" s="35"/>
       <c r="I5" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5" s="13">
-        <v>-1.379310344827589E-2</v>
+        <v>-2.857142857142847E-2</v>
       </c>
       <c r="K5" s="14">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>11</v>
@@ -4173,13 +4182,13 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="13">
-        <v>0.10399999999999987</v>
+        <v>0</v>
       </c>
       <c r="D6" s="14">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>11</v>
@@ -4188,13 +4197,13 @@
       <c r="G6" s="11"/>
       <c r="H6" s="35"/>
       <c r="I6" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" s="13">
-        <v>-8.6294416243654748E-2</v>
+        <v>-3.3783783783783772E-2</v>
       </c>
       <c r="K6" s="14">
-        <v>3.6</v>
+        <v>1.43</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>11</v>
@@ -4205,10 +4214,10 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="13">
-        <v>1.6393442622950838E-2</v>
+        <v>-3.215434083601254E-3</v>
       </c>
       <c r="D7" s="14">
         <v>3.1</v>
@@ -4220,13 +4229,13 @@
       <c r="G7" s="11"/>
       <c r="H7" s="35"/>
       <c r="I7" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="13">
-        <v>-9.3333333333333268E-2</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="K7" s="14">
-        <v>1.36</v>
+        <v>3.6</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>11</v>
@@ -4237,7 +4246,7 @@
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="18">
         <v>-3.007518796992481E-2</v>
@@ -4252,10 +4261,10 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
       <c r="I8" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8" s="18">
-        <v>-0.11206896551724133</v>
+        <v>-0.10434782608695647</v>
       </c>
       <c r="K8" s="19">
         <v>1.03</v>
@@ -4284,7 +4293,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -4293,15 +4302,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -4310,10 +4319,10 @@
         <v>6</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -4321,10 +4330,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C11" s="13">
-        <v>1.25</v>
+        <v>0.6875</v>
       </c>
       <c r="D11" s="14">
         <v>6.75</v>
@@ -4336,16 +4345,16 @@
       <c r="G11" s="11"/>
       <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J11" s="13">
-        <v>9.0909090909090828E-2</v>
+        <v>4.3478260869565188E-2</v>
       </c>
       <c r="K11" s="14">
         <v>12</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="16"/>
@@ -4353,28 +4362,28 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="13">
-        <v>0.13461538461538458</v>
+        <v>0.11742424242424243</v>
       </c>
       <c r="D12" s="14">
         <v>2.95</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="43"/>
       <c r="I12" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="13">
-        <v>-6.6666666666666763E-2</v>
+        <v>-8.4302325581395388E-2</v>
       </c>
       <c r="K12" s="14">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>11</v>
@@ -4385,10 +4394,10 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="13">
-        <v>0</v>
+        <v>-3.2258064516129004E-2</v>
       </c>
       <c r="D13" s="14">
         <v>15</v>
@@ -4400,13 +4409,13 @@
       <c r="G13" s="11"/>
       <c r="H13" s="43"/>
       <c r="I13" s="12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J13" s="13">
-        <v>-7.079646017699126E-2</v>
+        <v>-0.12056737588652477</v>
       </c>
       <c r="K13" s="14">
-        <v>3.15</v>
+        <v>1.24</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>11</v>
@@ -4417,10 +4426,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="13">
-        <v>-5.9999999999999942E-2</v>
+        <v>-7.4803149606299191E-2</v>
       </c>
       <c r="D14" s="14">
         <v>2.35</v>
@@ -4432,13 +4441,13 @@
       <c r="G14" s="11"/>
       <c r="H14" s="43"/>
       <c r="I14" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="13">
-        <v>-0.12676056338028163</v>
+        <v>-0.16666666666666663</v>
       </c>
       <c r="K14" s="14">
-        <v>1.24</v>
+        <v>15</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>11</v>
@@ -4449,28 +4458,28 @@
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="18">
-        <v>-0.14634146341463417</v>
+        <v>-8.064516129032262E-2</v>
       </c>
       <c r="D15" s="19">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="44"/>
       <c r="I15" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="18">
-        <v>-0.15492957746478875</v>
+        <v>-0.20000000000000007</v>
       </c>
       <c r="K15" s="19">
-        <v>15</v>
+        <v>2.8</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>11</v>
@@ -4496,7 +4505,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -4505,15 +4514,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -4522,10 +4531,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -4536,7 +4545,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="13">
-        <v>0.39999999999999991</v>
+        <v>0.3125</v>
       </c>
       <c r="D18" s="14">
         <v>21</v>
@@ -4551,7 +4560,7 @@
         <v>89</v>
       </c>
       <c r="J18" s="13">
-        <v>0.23809523809523814</v>
+        <v>0.18181818181818188</v>
       </c>
       <c r="K18" s="14">
         <v>26</v>
@@ -4565,7 +4574,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C19" s="13">
         <v>0.17500000000000004</v>
@@ -4580,10 +4589,10 @@
       <c r="G19" s="11"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" s="13">
-        <v>0</v>
+        <v>-3.703703703703709E-2</v>
       </c>
       <c r="K19" s="14">
         <v>26</v>
@@ -4597,7 +4606,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="13">
         <v>0.14000000000000012</v>
@@ -4612,7 +4621,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J20" s="13">
         <v>-7.4999999999999956E-2</v>
@@ -4629,10 +4638,10 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="13">
-        <v>-0.1333333333333333</v>
+        <v>-0.16129032258064513</v>
       </c>
       <c r="D21" s="14">
         <v>26</v>
@@ -4644,13 +4653,13 @@
       <c r="G21" s="11"/>
       <c r="H21" s="43"/>
       <c r="I21" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J21" s="13">
-        <v>-0.67692307692307696</v>
+        <v>-0.7</v>
       </c>
       <c r="K21" s="14">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>11</v>
@@ -4661,7 +4670,7 @@
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="18">
         <v>-0.40384615384615385</v>
@@ -4670,19 +4679,19 @@
         <v>7.75</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="44"/>
       <c r="I22" s="17" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J22" s="18">
         <v>-0.7</v>
       </c>
       <c r="K22" s="19">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>11</v>
@@ -4711,13 +4720,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>6</v>
@@ -4728,13 +4737,13 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>6</v>
@@ -4745,7 +4754,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="12">
         <v>6</v>
@@ -4754,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="28">
-        <v>9.8333333333333339</v>
+        <v>10</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
@@ -4769,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="28">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -4777,7 +4786,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="12">
         <v>5</v>
@@ -4786,13 +4795,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="28">
-        <v>2.1619999999999995</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="37"/>
       <c r="I26" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J26" s="12">
         <v>4</v>
@@ -4809,7 +4818,7 @@
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="29">
         <v>5</v>
@@ -4818,13 +4827,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="30">
-        <v>1.032</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="37"/>
       <c r="I27" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J27" s="29">
         <v>4</v>
@@ -4833,17 +4842,17 @@
         <v>2</v>
       </c>
       <c r="L27" s="30">
-        <v>0.64500000000000002</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="8">
         <v>4</v>
@@ -4852,15 +4861,15 @@
         <v>2</v>
       </c>
       <c r="E28" s="23">
-        <v>0.30000000000000004</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J28" s="8">
         <v>4</v>
@@ -4877,7 +4886,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="12">
         <v>5</v>
@@ -4886,13 +4895,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="28">
-        <v>-0.31200000000000006</v>
+        <v>-0.33600000000000008</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="37"/>
       <c r="I29" s="12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J29" s="12">
         <v>4</v>
@@ -4901,7 +4910,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="28">
-        <v>1.65</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -4909,7 +4918,7 @@
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C30" s="17">
         <v>6</v>
@@ -4918,13 +4927,13 @@
         <v>2</v>
       </c>
       <c r="E30" s="31">
-        <v>-0.45333333333333337</v>
+        <v>-0.45666666666666667</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="39"/>
       <c r="I30" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J30" s="17">
         <v>4</v>
@@ -4933,17 +4942,17 @@
         <v>1</v>
       </c>
       <c r="L30" s="31">
-        <v>0.91749999999999998</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="32">
         <v>4</v>
@@ -4957,10 +4966,10 @@
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J31" s="32">
         <v>4</v>
@@ -4977,7 +4986,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C32" s="12">
         <v>6</v>
@@ -4992,7 +5001,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="37"/>
       <c r="I32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J32" s="12">
         <v>3</v>
@@ -5001,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -5009,7 +5018,7 @@
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="17">
         <v>6</v>
@@ -5018,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="39"/>
       <c r="I33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33" s="17">
         <v>3</v>
@@ -5033,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -5060,7 +5069,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -5175,10 +5184,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA499018-BBB1-42E7-8277-C02B37722DCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB04DB0-C457-42B8-88F4-662ACBFB0FDE}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:N35"/>
     </sheetView>
   </sheetViews>
@@ -5189,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5207,7 +5216,7 @@
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5">
         <v>0.84033613445378152</v>
@@ -5224,7 +5233,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L2" s="7">
         <v>0.21052631578947367</v>
@@ -5246,7 +5255,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -5263,7 +5272,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -5271,7 +5280,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="13">
         <v>-1.9230769230769273E-2</v>
@@ -5286,16 +5295,16 @@
       <c r="G4" s="11"/>
       <c r="H4" s="35"/>
       <c r="I4" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J4" s="13">
-        <v>0.62601626016260159</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="K4" s="14">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -5303,10 +5312,10 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="13">
-        <v>-0.19724770642201839</v>
+        <v>-0.18604651162790697</v>
       </c>
       <c r="D5" s="14">
         <v>1.75</v>
@@ -5318,16 +5327,16 @@
       <c r="G5" s="11"/>
       <c r="H5" s="35"/>
       <c r="I5" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J5" s="13">
-        <v>0.25984251968503935</v>
+        <v>0.57480314960629908</v>
       </c>
       <c r="K5" s="14">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -5335,10 +5344,10 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="13">
-        <v>-0.24848484848484842</v>
+        <v>-0.26627218934911245</v>
       </c>
       <c r="D6" s="14">
         <v>1.24</v>
@@ -5350,16 +5359,16 @@
       <c r="G6" s="11"/>
       <c r="H6" s="35"/>
       <c r="I6" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J6" s="13">
-        <v>0.13432835820895517</v>
+        <v>0.24031007751937983</v>
       </c>
       <c r="K6" s="14">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="16"/>
@@ -5367,31 +5376,31 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="13">
-        <v>-0.29999999999999993</v>
+        <v>-0.30434782608695654</v>
       </c>
       <c r="D7" s="14">
-        <v>2.4500000000000002</v>
+        <v>4</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="35"/>
       <c r="I7" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J7" s="13">
-        <v>8.786610878661083E-2</v>
+        <v>0.14754098360655732</v>
       </c>
       <c r="K7" s="14">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -5399,13 +5408,13 @@
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="18">
-        <v>-0.35897435897435892</v>
+        <v>-0.31179775280898869</v>
       </c>
       <c r="D8" s="19">
-        <v>1.75</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>11</v>
@@ -5414,16 +5423,16 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
       <c r="I8" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J8" s="18">
-        <v>5.0000000000000044E-2</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="K8" s="19">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -5446,7 +5455,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -5455,15 +5464,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -5472,10 +5481,10 @@
         <v>6</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -5483,10 +5492,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="13">
-        <v>-0.10852713178294582</v>
+        <v>-0.12213740458015276</v>
       </c>
       <c r="D11" s="14">
         <v>1.1499999999999999</v>
@@ -5498,10 +5507,10 @@
       <c r="G11" s="11"/>
       <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J11" s="13">
-        <v>1.4166666666666665</v>
+        <v>0.8125</v>
       </c>
       <c r="K11" s="14">
         <v>7.25</v>
@@ -5515,10 +5524,10 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C12" s="13">
-        <v>-0.250814332247557</v>
+        <v>-0.26751592356687903</v>
       </c>
       <c r="D12" s="14">
         <v>2.2999999999999998</v>
@@ -5530,16 +5539,16 @@
       <c r="G12" s="11"/>
       <c r="H12" s="43"/>
       <c r="I12" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J12" s="13">
-        <v>0.44999999999999996</v>
+        <v>0.38157894736842102</v>
       </c>
       <c r="K12" s="14">
-        <v>7.25</v>
+        <v>2.1</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -5547,10 +5556,10 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" s="13">
-        <v>-0.31944444444444442</v>
+        <v>-0.32876712328767121</v>
       </c>
       <c r="D13" s="14">
         <v>4.9000000000000004</v>
@@ -5562,16 +5571,16 @@
       <c r="G13" s="11"/>
       <c r="H13" s="43"/>
       <c r="I13" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J13" s="13">
-        <v>0.41891891891891908</v>
+        <v>0.36363636363636354</v>
       </c>
       <c r="K13" s="14">
-        <v>2.1</v>
+        <v>15</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -5579,10 +5588,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C14" s="13">
-        <v>-0.43760042849491165</v>
+        <v>-0.44736842105263153</v>
       </c>
       <c r="D14" s="14">
         <v>10.5</v>
@@ -5594,13 +5603,13 @@
       <c r="G14" s="11"/>
       <c r="H14" s="43"/>
       <c r="I14" s="12" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J14" s="13">
-        <v>0.4058106841611997</v>
+        <v>0.31818181818181812</v>
       </c>
       <c r="K14" s="14">
-        <v>15</v>
+        <v>7.25</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>11</v>
@@ -5611,10 +5620,10 @@
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" s="18">
-        <v>-0.48352188883423508</v>
+        <v>-0.49201741654571851</v>
       </c>
       <c r="D15" s="19">
         <v>10.5</v>
@@ -5626,10 +5635,10 @@
       <c r="G15" s="11"/>
       <c r="H15" s="44"/>
       <c r="I15" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J15" s="18">
-        <v>0.3114754098360657</v>
+        <v>0.29032258064516125</v>
       </c>
       <c r="K15" s="19">
         <v>4</v>
@@ -5658,7 +5667,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -5667,15 +5676,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -5684,10 +5693,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -5695,7 +5704,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C18" s="13">
         <v>-0.22999999999999998</v>
@@ -5704,13 +5713,13 @@
         <v>1.54</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="43"/>
       <c r="I18" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J18" s="13">
         <v>0.5625</v>
@@ -5727,13 +5736,13 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C19" s="13">
-        <v>-0.32499999999999996</v>
+        <v>-0.375</v>
       </c>
       <c r="D19" s="14">
-        <v>6.75</v>
+        <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>11</v>
@@ -5742,7 +5751,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J19" s="13">
         <v>0.53333333333333321</v>
@@ -5759,13 +5768,13 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="12" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C20" s="13">
-        <v>-0.375</v>
+        <v>-0.38636363636363635</v>
       </c>
       <c r="D20" s="14">
-        <v>15</v>
+        <v>6.75</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>11</v>
@@ -5774,7 +5783,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J20" s="13">
         <v>0.375</v>
@@ -5791,10 +5800,10 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C21" s="13">
-        <v>-0.60606060606060608</v>
+        <v>-0.61764705882352944</v>
       </c>
       <c r="D21" s="14">
         <v>13</v>
@@ -5806,7 +5815,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="43"/>
       <c r="I21" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J21" s="13">
         <v>0.25</v>
@@ -5823,10 +5832,10 @@
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C22" s="18">
-        <v>-0.64285714285714279</v>
+        <v>-0.66666666666666674</v>
       </c>
       <c r="D22" s="19">
         <v>5</v>
@@ -5838,10 +5847,10 @@
       <c r="G22" s="11"/>
       <c r="H22" s="44"/>
       <c r="I22" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J22" s="18">
-        <v>0.10714285714285721</v>
+        <v>6.8965517241379226E-2</v>
       </c>
       <c r="K22" s="19">
         <v>31</v>
@@ -5873,13 +5882,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>6</v>
@@ -5890,13 +5899,13 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>6</v>
@@ -5907,7 +5916,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C25" s="12">
         <v>4</v>
@@ -5916,13 +5925,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="28">
-        <v>1.1800000000000002</v>
+        <v>1.2149999999999999</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="37"/>
       <c r="I25" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J25" s="12">
         <v>4</v>
@@ -5931,7 +5940,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="28">
-        <v>1.165</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -5939,7 +5948,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="12" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C26" s="12">
         <v>5</v>
@@ -5948,13 +5957,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="28">
-        <v>0.6379999999999999</v>
+        <v>0.66199999999999992</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="37"/>
       <c r="I26" s="12" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="J26" s="12">
         <v>5</v>
@@ -5963,7 +5972,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="28">
-        <v>0.43399999999999994</v>
+        <v>0.45799999999999996</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -5971,7 +5980,7 @@
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C27" s="29">
         <v>4</v>
@@ -5980,13 +5989,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="30">
-        <v>3.2499999999999973E-2</v>
+        <v>-1.5000000000000013E-2</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="37"/>
       <c r="I27" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J27" s="29">
         <v>4</v>
@@ -6002,10 +6011,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="8">
         <v>2</v>
@@ -6014,15 +6023,15 @@
         <v>0</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J28" s="8">
         <v>3</v>
@@ -6031,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -6039,7 +6048,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="12">
         <v>2</v>
@@ -6048,13 +6057,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="37"/>
       <c r="I29" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29" s="12">
         <v>3</v>
@@ -6063,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -6071,7 +6080,7 @@
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="17">
         <v>2</v>
@@ -6080,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="39"/>
       <c r="I30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30" s="17">
         <v>3</v>
@@ -6095,17 +6104,17 @@
         <v>0</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="32">
         <v>2</v>
@@ -6114,15 +6123,15 @@
         <v>0</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J31" s="32">
         <v>3</v>
@@ -6131,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -6139,7 +6148,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12">
         <v>2</v>
@@ -6148,13 +6157,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="37"/>
       <c r="I32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J32" s="12">
         <v>3</v>
@@ -6163,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -6171,7 +6180,7 @@
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="17">
         <v>2</v>
@@ -6180,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="39"/>
       <c r="I33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33" s="17">
         <v>3</v>
@@ -6195,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -6222,7 +6231,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -6337,7 +6346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A112F-475F-4782-A33A-F01057BE08E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D16D97-322A-4B54-86A6-1D9B36C56976}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6351,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6369,7 +6378,7 @@
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C2" s="5">
         <v>0.39215686274509809</v>
@@ -6386,7 +6395,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L2" s="7">
         <v>0.65789473684210531</v>
@@ -6408,7 +6417,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -6425,7 +6434,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -6433,10 +6442,10 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C4" s="13">
-        <v>0.24365482233502544</v>
+        <v>0.22500000000000009</v>
       </c>
       <c r="D4" s="14">
         <v>2.4500000000000002</v>
@@ -6448,10 +6457,10 @@
       <c r="G4" s="11"/>
       <c r="H4" s="35"/>
       <c r="I4" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J4" s="13">
-        <v>0.10000000000000009</v>
+        <v>2.6666666666666616E-2</v>
       </c>
       <c r="K4" s="14">
         <v>1.54</v>
@@ -6465,7 +6474,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" s="13">
         <v>8.6956521739129933E-3</v>
@@ -6480,7 +6489,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="35"/>
       <c r="I5" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J5" s="13">
         <v>-8.8495575221236855E-3</v>
@@ -6497,10 +6506,10 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C6" s="13">
-        <v>-9.9999999999999978E-2</v>
+        <v>-0.11417322834645671</v>
       </c>
       <c r="D6" s="14">
         <v>2.25</v>
@@ -6512,10 +6521,10 @@
       <c r="G6" s="11"/>
       <c r="H6" s="35"/>
       <c r="I6" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J6" s="13">
-        <v>-7.7519379844961267E-2</v>
+        <v>-7.0312500000000111E-2</v>
       </c>
       <c r="K6" s="14">
         <v>1.19</v>
@@ -6529,13 +6538,13 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C7" s="13">
-        <v>-0.12500000000000011</v>
+        <v>-0.13821138211382111</v>
       </c>
       <c r="D7" s="14">
-        <v>2.8</v>
+        <v>1.06</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>11</v>
@@ -6544,7 +6553,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="35"/>
       <c r="I7" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J7" s="13">
         <v>-9.2857142857142749E-2</v>
@@ -6561,13 +6570,13 @@
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C8" s="18">
-        <v>-0.14516129032258063</v>
+        <v>-0.13846153846153852</v>
       </c>
       <c r="D8" s="19">
-        <v>1.06</v>
+        <v>2.8</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>11</v>
@@ -6576,7 +6585,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
       <c r="I8" s="17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J8" s="18">
         <v>-0.10236220472440949</v>
@@ -6608,7 +6617,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -6617,15 +6626,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -6634,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -6645,10 +6654,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C11" s="13">
-        <v>0.23152709359605916</v>
+        <v>0.21212121212121215</v>
       </c>
       <c r="D11" s="14">
         <v>10</v>
@@ -6660,10 +6669,10 @@
       <c r="G11" s="11"/>
       <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J11" s="13">
-        <v>0.33928571428571441</v>
+        <v>0.25</v>
       </c>
       <c r="K11" s="14">
         <v>3.75</v>
@@ -6677,10 +6686,10 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C12" s="13">
-        <v>8.8235294117647189E-2</v>
+        <v>7.5581395348837344E-2</v>
       </c>
       <c r="D12" s="14">
         <v>1.85</v>
@@ -6692,16 +6701,16 @@
       <c r="G12" s="11"/>
       <c r="H12" s="43"/>
       <c r="I12" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J12" s="13">
-        <v>8.6956521739130377E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="K12" s="14">
         <v>1.75</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -6709,13 +6718,13 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C13" s="13">
-        <v>-0.17500000000000004</v>
+        <v>-5.555555555555558E-2</v>
       </c>
       <c r="D13" s="14">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>11</v>
@@ -6724,16 +6733,16 @@
       <c r="G13" s="11"/>
       <c r="H13" s="43"/>
       <c r="I13" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J13" s="13">
-        <v>-3.7620297462817143E-2</v>
+        <v>4.784688995215447E-3</v>
       </c>
       <c r="K13" s="14">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -6741,28 +6750,28 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" s="13">
-        <v>-0.24175824175824168</v>
+        <v>-0.1887905604719764</v>
       </c>
       <c r="D14" s="14">
-        <v>3.45</v>
+        <v>8.25</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
       <c r="H14" s="43"/>
       <c r="I14" s="12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J14" s="13">
-        <v>-4.5454545454545525E-2</v>
+        <v>-2.4390243902439046E-2</v>
       </c>
       <c r="K14" s="14">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>11</v>
@@ -6773,31 +6782,31 @@
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C15" s="18">
-        <v>-0.27142857142857146</v>
+        <v>-0.25646551724137923</v>
       </c>
       <c r="D15" s="19">
-        <v>5.0999999999999996</v>
+        <v>3.45</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="44"/>
       <c r="I15" s="17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J15" s="18">
-        <v>-8.8145896656534939E-2</v>
+        <v>-4.9265341400172913E-2</v>
       </c>
       <c r="K15" s="19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -6820,7 +6829,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -6829,15 +6838,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -6846,10 +6855,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -6857,7 +6866,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C18" s="13">
         <v>0.19999999999999996</v>
@@ -6872,10 +6881,10 @@
       <c r="G18" s="11"/>
       <c r="H18" s="43"/>
       <c r="I18" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J18" s="13">
-        <v>0.64285714285714279</v>
+        <v>0.4375</v>
       </c>
       <c r="K18" s="14">
         <v>11.5</v>
@@ -6889,10 +6898,10 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C19" s="13">
-        <v>0</v>
+        <v>-3.703703703703709E-2</v>
       </c>
       <c r="D19" s="14">
         <v>26</v>
@@ -6904,13 +6913,13 @@
       <c r="G19" s="11"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J19" s="13">
-        <v>-5.0000000000000044E-2</v>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="K19" s="14">
-        <v>19</v>
+        <v>3.3</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>11</v>
@@ -6921,7 +6930,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C20" s="13">
         <v>-0.41176470588235292</v>
@@ -6936,13 +6945,13 @@
       <c r="G20" s="11"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J20" s="13">
-        <v>-0.17500000000000004</v>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="K20" s="14">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>11</v>
@@ -6953,7 +6962,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C21" s="13">
         <v>-0.54</v>
@@ -6968,13 +6977,13 @@
       <c r="G21" s="11"/>
       <c r="H21" s="43"/>
       <c r="I21" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J21" s="13">
-        <v>-0.22222222222222221</v>
+        <v>-0.1428571428571429</v>
       </c>
       <c r="K21" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>11</v>
@@ -6985,10 +6994,10 @@
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C22" s="18">
-        <v>-0.61904761904761907</v>
+        <v>-0.62790697674418605</v>
       </c>
       <c r="D22" s="19">
         <v>16</v>
@@ -7000,13 +7009,13 @@
       <c r="G22" s="11"/>
       <c r="H22" s="44"/>
       <c r="I22" s="17" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J22" s="18">
-        <v>-0.25</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="K22" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>11</v>
@@ -7035,13 +7044,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>6</v>
@@ -7052,13 +7061,13 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>6</v>
@@ -7069,7 +7078,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C25" s="12">
         <v>4</v>
@@ -7078,13 +7087,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="28">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="37"/>
       <c r="I25" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="12">
         <v>3</v>
@@ -7093,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -7101,7 +7110,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
@@ -7110,13 +7119,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="28">
-        <v>-0.25</v>
+        <v>-0.28249999999999997</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="37"/>
       <c r="I26" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26" s="12">
         <v>3</v>
@@ -7125,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -7133,7 +7142,7 @@
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="29">
         <v>2</v>
@@ -7142,13 +7151,13 @@
         <v>2</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="37"/>
       <c r="I27" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J27" s="29">
         <v>3</v>
@@ -7157,17 +7166,17 @@
         <v>0</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C28" s="8">
         <v>4</v>
@@ -7176,15 +7185,15 @@
         <v>1</v>
       </c>
       <c r="E28" s="23">
-        <v>0.75</v>
+        <v>0.79249999999999998</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J28" s="8">
         <v>3</v>
@@ -7193,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -7201,7 +7210,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="12">
         <v>2</v>
@@ -7210,13 +7219,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="37"/>
       <c r="I29" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29" s="12">
         <v>3</v>
@@ -7225,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -7233,7 +7242,7 @@
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="17">
         <v>2</v>
@@ -7242,13 +7251,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="39"/>
       <c r="I30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30" s="17">
         <v>3</v>
@@ -7257,17 +7266,17 @@
         <v>0</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="32">
         <v>2</v>
@@ -7276,15 +7285,15 @@
         <v>0</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J31" s="32">
         <v>3</v>
@@ -7293,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -7301,7 +7310,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12">
         <v>2</v>
@@ -7310,13 +7319,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="37"/>
       <c r="I32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J32" s="12">
         <v>3</v>
@@ -7325,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -7333,7 +7342,7 @@
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="17">
         <v>2</v>
@@ -7342,13 +7351,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="39"/>
       <c r="I33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33" s="17">
         <v>3</v>
@@ -7357,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -7384,7 +7393,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -7499,7 +7508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A50D5B-0615-4627-B398-233F8CF4D947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62806A49-E1E6-4C2F-9A27-F79DDEF455C8}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7513,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7531,7 +7540,7 @@
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C2" s="5">
         <v>0.5</v>
@@ -7548,7 +7557,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L2" s="7">
         <v>0.54054054054054046</v>
@@ -7570,7 +7579,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -7587,7 +7596,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7595,13 +7604,13 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C4" s="13">
-        <v>0.29333333333333322</v>
+        <v>0.45333333333333337</v>
       </c>
       <c r="D4" s="14">
-        <v>1.94</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>11</v>
@@ -7610,7 +7619,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="35"/>
       <c r="I4" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J4" s="13">
         <v>-8.0000000000000071E-2</v>
@@ -7619,7 +7628,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -7627,22 +7636,22 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C5" s="13">
-        <v>0.20437956204379537</v>
+        <v>0.1619718309859155</v>
       </c>
       <c r="D5" s="14">
         <v>1.65</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="35"/>
       <c r="I5" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J5" s="13">
         <v>-0.22043010752688175</v>
@@ -7659,13 +7668,13 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" s="13">
-        <v>9.000000000000008E-2</v>
+        <v>2.5210084033613578E-2</v>
       </c>
       <c r="D6" s="14">
-        <v>2.1800000000000002</v>
+        <v>1.22</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>11</v>
@@ -7674,7 +7683,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="35"/>
       <c r="I6" s="12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J6" s="13">
         <v>-0.22666666666666668</v>
@@ -7691,7 +7700,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C7" s="13">
         <v>1.6393442622950838E-2</v>
@@ -7700,13 +7709,13 @@
         <v>1.24</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="35"/>
       <c r="I7" s="12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J7" s="13">
         <v>-0.27322404371584696</v>
@@ -7715,7 +7724,7 @@
         <v>1.33</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -7723,10 +7732,10 @@
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C8" s="18">
-        <v>8.6206896551723755E-3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="19">
         <v>1.17</v>
@@ -7738,7 +7747,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
       <c r="I8" s="17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J8" s="18">
         <v>-0.33789954337899542</v>
@@ -7770,7 +7779,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -7779,15 +7788,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -7796,10 +7805,10 @@
         <v>6</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -7807,22 +7816,22 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C11" s="13">
-        <v>0.52727272727272734</v>
+        <v>0.48409893992932873</v>
       </c>
       <c r="D11" s="14">
         <v>4.2</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J11" s="13">
         <v>2.7777777777777679E-2</v>
@@ -7831,7 +7840,7 @@
         <v>9.25</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="16"/>
@@ -7839,22 +7848,22 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C12" s="13">
-        <v>0.34868421052631571</v>
+        <v>0.32258064516129026</v>
       </c>
       <c r="D12" s="14">
         <v>2.0499999999999998</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="43"/>
       <c r="I12" s="12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J12" s="13">
         <v>-0.33333333333333337</v>
@@ -7871,22 +7880,22 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C13" s="13">
-        <v>-0.26751592356687903</v>
+        <v>0.11111111111111116</v>
       </c>
       <c r="D13" s="14">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
       <c r="H13" s="43"/>
       <c r="I13" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J13" s="13">
         <v>-0.36</v>
@@ -7895,7 +7904,7 @@
         <v>3.2</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -7903,13 +7912,13 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" s="13">
-        <v>-0.28301886792452835</v>
+        <v>-0.28348909657320875</v>
       </c>
       <c r="D14" s="14">
-        <v>3.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>11</v>
@@ -7918,7 +7927,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="43"/>
       <c r="I14" s="12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J14" s="13">
         <v>-0.3689320388349514</v>
@@ -7935,13 +7944,13 @@
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C15" s="18">
-        <v>-0.40423654015887023</v>
+        <v>-0.29629629629629639</v>
       </c>
       <c r="D15" s="19">
-        <v>6.75</v>
+        <v>3.8</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>11</v>
@@ -7950,7 +7959,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="44"/>
       <c r="I15" s="17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J15" s="18">
         <v>-0.4</v>
@@ -7982,7 +7991,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -7991,15 +8000,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -8008,10 +8017,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -8019,7 +8028,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C18" s="13">
         <v>0.53333333333333321</v>
@@ -8028,13 +8037,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="43"/>
       <c r="I18" s="12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J18" s="13">
         <v>-0.22727272727272729</v>
@@ -8051,7 +8060,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C19" s="13">
         <v>0.375</v>
@@ -8066,7 +8075,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J19" s="13">
         <v>-0.40909090909090906</v>
@@ -8083,7 +8092,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C20" s="13">
         <v>0.18181818181818188</v>
@@ -8098,7 +8107,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J20" s="13">
         <v>-0.52777777777777779</v>
@@ -8107,7 +8116,7 @@
         <v>8.5</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -8115,22 +8124,22 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C21" s="13">
-        <v>8.3333333333333259E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="D21" s="14">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="43"/>
       <c r="I21" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J21" s="13">
         <v>-0.68461538461538463</v>
@@ -8147,13 +8156,13 @@
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C22" s="18">
-        <v>8.0000000000000071E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="D22" s="19">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>11</v>
@@ -8162,7 +8171,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="44"/>
       <c r="I22" s="17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J22" s="18">
         <v>-0.73333333333333339</v>
@@ -8171,7 +8180,7 @@
         <v>4.8</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -8197,13 +8206,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>6</v>
@@ -8214,13 +8223,13 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>6</v>
@@ -8231,7 +8240,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="12">
         <v>3</v>
@@ -8240,13 +8249,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="37"/>
       <c r="I25" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="12">
         <v>3</v>
@@ -8255,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -8263,7 +8272,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="12">
         <v>3</v>
@@ -8272,13 +8281,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="37"/>
       <c r="I26" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26" s="12">
         <v>3</v>
@@ -8287,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -8295,7 +8304,7 @@
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="29">
         <v>3</v>
@@ -8304,13 +8313,13 @@
         <v>3</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="37"/>
       <c r="I27" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J27" s="29">
         <v>3</v>
@@ -8319,17 +8328,17 @@
         <v>1</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="8">
         <v>3</v>
@@ -8338,15 +8347,15 @@
         <v>3</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J28" s="8">
         <v>3</v>
@@ -8355,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -8363,7 +8372,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="12">
         <v>3</v>
@@ -8372,13 +8381,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="37"/>
       <c r="I29" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29" s="12">
         <v>3</v>
@@ -8387,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -8395,7 +8404,7 @@
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="17">
         <v>3</v>
@@ -8404,13 +8413,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="39"/>
       <c r="I30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30" s="17">
         <v>3</v>
@@ -8419,17 +8428,17 @@
         <v>0</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="32">
         <v>3</v>
@@ -8438,15 +8447,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J31" s="32">
         <v>3</v>
@@ -8455,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -8463,7 +8472,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12">
         <v>3</v>
@@ -8472,13 +8481,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="37"/>
       <c r="I32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J32" s="12">
         <v>3</v>
@@ -8487,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -8495,7 +8504,7 @@
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="17">
         <v>3</v>
@@ -8504,13 +8513,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="39"/>
       <c r="I33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33" s="17">
         <v>3</v>
@@ -8519,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -8546,7 +8555,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -8661,7 +8670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3DCE5F-B614-4AB3-B598-77C232B28079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F552123-4099-496D-93A3-A5D8C6484F85}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8675,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8693,7 +8702,7 @@
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2" s="5">
         <v>0.18181818181818182</v>
@@ -8710,7 +8719,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L2" s="7">
         <v>0.86956521739130443</v>
@@ -8732,7 +8741,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -8749,7 +8758,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -8757,13 +8766,13 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C4" s="13">
-        <v>-8.9285714285713969E-3</v>
+        <v>5.2631578947368363E-2</v>
       </c>
       <c r="D4" s="14">
-        <v>1.1100000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>11</v>
@@ -8772,7 +8781,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="35"/>
       <c r="I4" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J4" s="13">
         <v>0.44999999999999996</v>
@@ -8789,13 +8798,13 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C5" s="13">
-        <v>-6.6666666666666763E-2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="14">
-        <v>1.4</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>11</v>
@@ -8804,13 +8813,13 @@
       <c r="G5" s="11"/>
       <c r="H5" s="35"/>
       <c r="I5" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J5" s="13">
-        <v>-2.3255813953488413E-2</v>
+        <v>-7.4380165289256062E-2</v>
       </c>
       <c r="K5" s="14">
-        <v>1.26</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>11</v>
@@ -8821,31 +8830,31 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C6" s="13">
-        <v>-9.210526315789469E-2</v>
+        <v>-0.11538461538461531</v>
       </c>
       <c r="D6" s="14">
         <v>3.45</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="35"/>
       <c r="I6" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J6" s="13">
-        <v>-8.1967213114753967E-2</v>
+        <v>-9.6296296296296324E-2</v>
       </c>
       <c r="K6" s="14">
-        <v>1.1200000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="16"/>
@@ -8853,31 +8862,31 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C7" s="13">
-        <v>-0.13865546218487401</v>
+        <v>-0.11637931034482762</v>
       </c>
       <c r="D7" s="14">
         <v>2.0499999999999998</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="35"/>
       <c r="I7" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J7" s="13">
-        <v>-0.10294117647058831</v>
+        <v>-0.10994764397905754</v>
       </c>
       <c r="K7" s="14">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -8885,22 +8894,22 @@
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C8" s="18">
-        <v>-0.15343915343915338</v>
+        <v>-0.16449086161879889</v>
       </c>
       <c r="D8" s="19">
         <v>3.2</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
       <c r="I8" s="17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J8" s="18">
         <v>-0.11811023622047234</v>
@@ -8932,7 +8941,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -8941,15 +8950,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -8958,10 +8967,10 @@
         <v>6</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -8969,13 +8978,13 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C11" s="13">
-        <v>0.26811594202898559</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="D11" s="14">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>11</v>
@@ -8984,10 +8993,10 @@
       <c r="G11" s="11"/>
       <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J11" s="13">
-        <v>2.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K11" s="14">
         <v>3.1</v>
@@ -9001,16 +9010,16 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="13">
-        <v>0.1838989739542225</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="D12" s="14">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
@@ -9019,10 +9028,10 @@
         <v>179</v>
       </c>
       <c r="J12" s="13">
-        <v>3.3333333333333437E-2</v>
+        <v>-4.4444444444444509E-2</v>
       </c>
       <c r="K12" s="14">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>11</v>
@@ -9033,13 +9042,13 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" s="13">
-        <v>9.9999999999999867E-2</v>
+        <v>0.22377622377622375</v>
       </c>
       <c r="D13" s="14">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>11</v>
@@ -9048,16 +9057,16 @@
       <c r="G13" s="11"/>
       <c r="H13" s="43"/>
       <c r="I13" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J13" s="13">
-        <v>-2.9345372460496622E-2</v>
+        <v>-5.1724137931034364E-2</v>
       </c>
       <c r="K13" s="14">
-        <v>4.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -9065,31 +9074,31 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C14" s="13">
-        <v>-3.3333333333333326E-2</v>
+        <v>0.15384615384615374</v>
       </c>
       <c r="D14" s="14">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
       <c r="H14" s="43"/>
       <c r="I14" s="12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J14" s="13">
-        <v>-7.1729957805907185E-2</v>
+        <v>-0.16256157635467972</v>
       </c>
       <c r="K14" s="14">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -9097,13 +9106,13 @@
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C15" s="18">
-        <v>-0.17647058823529416</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="D15" s="19">
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>11</v>
@@ -9112,13 +9121,13 @@
       <c r="G15" s="11"/>
       <c r="H15" s="44"/>
       <c r="I15" s="17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J15" s="18">
-        <v>-0.17475728155339809</v>
+        <v>-0.22499999999999998</v>
       </c>
       <c r="K15" s="19">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>11</v>
@@ -9144,7 +9153,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -9153,15 +9162,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -9170,10 +9179,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -9181,7 +9190,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C18" s="13">
         <v>0.67500000000000004</v>
@@ -9196,10 +9205,10 @@
       <c r="G18" s="11"/>
       <c r="H18" s="43"/>
       <c r="I18" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J18" s="13">
-        <v>1.6666666666666665</v>
+        <v>1</v>
       </c>
       <c r="K18" s="14">
         <v>8</v>
@@ -9213,10 +9222,10 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" s="13">
-        <v>0.55555555555555558</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="D19" s="14">
         <v>14</v>
@@ -9228,7 +9237,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J19" s="13">
         <v>-0.125</v>
@@ -9245,10 +9254,10 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C20" s="13">
-        <v>-0.1785714285714286</v>
+        <v>-0.2068965517241379</v>
       </c>
       <c r="D20" s="14">
         <v>23</v>
@@ -9260,7 +9269,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J20" s="13">
         <v>-0.19999999999999996</v>
@@ -9277,10 +9286,10 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C21" s="13">
-        <v>-0.61764705882352944</v>
+        <v>-0.62318840579710144</v>
       </c>
       <c r="D21" s="14">
         <v>26</v>
@@ -9292,7 +9301,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="43"/>
       <c r="I21" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J21" s="13">
         <v>-0.36</v>
@@ -9309,10 +9318,10 @@
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C22" s="18">
-        <v>-0.72916666666666674</v>
+        <v>-0.74</v>
       </c>
       <c r="D22" s="19">
         <v>6.5</v>
@@ -9324,10 +9333,10 @@
       <c r="G22" s="11"/>
       <c r="H22" s="44"/>
       <c r="I22" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J22" s="18">
-        <v>-0.55000000000000004</v>
+        <v>-0.4</v>
       </c>
       <c r="K22" s="19">
         <v>1.8</v>
@@ -9359,13 +9368,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>6</v>
@@ -9376,13 +9385,13 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>6</v>
@@ -9393,7 +9402,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C25" s="12">
         <v>4</v>
@@ -9402,13 +9411,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="28">
-        <v>1.8199999999999998</v>
+        <v>1.8650000000000002</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="37"/>
       <c r="I25" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J25" s="12">
         <v>4</v>
@@ -9425,7 +9434,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
@@ -9434,13 +9443,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="28">
-        <v>0.8899999999999999</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="37"/>
       <c r="I26" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J26" s="12">
         <v>4</v>
@@ -9449,7 +9458,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="28">
-        <v>0.7350000000000001</v>
+        <v>0.7649999999999999</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -9457,7 +9466,7 @@
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C27" s="29">
         <v>4</v>
@@ -9466,13 +9475,13 @@
         <v>3</v>
       </c>
       <c r="E27" s="30">
-        <v>0.78499999999999992</v>
+        <v>0.74</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="37"/>
       <c r="I27" s="29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J27" s="29">
         <v>4</v>
@@ -9481,17 +9490,17 @@
         <v>2</v>
       </c>
       <c r="L27" s="30">
-        <v>0.30499999999999994</v>
+        <v>0.27499999999999991</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C28" s="8">
         <v>4</v>
@@ -9500,15 +9509,15 @@
         <v>1</v>
       </c>
       <c r="E28" s="23">
-        <v>4.3324999999999996</v>
+        <v>4.4175000000000004</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J28" s="8">
         <v>4</v>
@@ -9517,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="23">
-        <v>-0.40749999999999997</v>
+        <v>-0.42000000000000004</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -9525,7 +9534,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C29" s="12">
         <v>4</v>
@@ -9534,13 +9543,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="37"/>
       <c r="I29" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29" s="12">
         <v>3</v>
@@ -9549,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -9557,7 +9566,7 @@
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="17">
         <v>3</v>
@@ -9566,13 +9575,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="39"/>
       <c r="I30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30" s="17">
         <v>3</v>
@@ -9581,17 +9590,17 @@
         <v>0</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C31" s="32">
         <v>4</v>
@@ -9600,15 +9609,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="33">
-        <v>15</v>
+        <v>15.25</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J31" s="32">
         <v>3</v>
@@ -9617,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -9625,7 +9634,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12">
         <v>3</v>
@@ -9634,13 +9643,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="37"/>
       <c r="I32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J32" s="12">
         <v>3</v>
@@ -9649,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -9657,7 +9666,7 @@
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="17">
         <v>3</v>
@@ -9666,13 +9675,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="39"/>
       <c r="I33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33" s="17">
         <v>3</v>
@@ -9681,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -9708,7 +9717,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -9823,7 +9832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FF87B0-3625-4190-ABF1-F7F891A54EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E77EA-B1A4-4F0F-AC9D-3A141EC487B3}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9837,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -9855,7 +9864,7 @@
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C2" s="5">
         <v>0.34722222222222221</v>
@@ -9872,7 +9881,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L2" s="7">
         <v>0.70422535211267612</v>
@@ -9894,7 +9903,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -9911,7 +9920,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -9919,31 +9928,31 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C4" s="13">
-        <v>0.29032258064516125</v>
+        <v>0.34615384615384603</v>
       </c>
       <c r="D4" s="14">
         <v>2.8</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="35"/>
       <c r="I4" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J4" s="13">
-        <v>0.15207373271889413</v>
+        <v>0.13122171945701355</v>
       </c>
       <c r="K4" s="14">
         <v>2.5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -9951,10 +9960,10 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C5" s="13">
-        <v>8.0000000000000071E-2</v>
+        <v>0.21804511278195493</v>
       </c>
       <c r="D5" s="14">
         <v>1.62</v>
@@ -9966,16 +9975,16 @@
       <c r="G5" s="11"/>
       <c r="H5" s="35"/>
       <c r="I5" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J5" s="13">
-        <v>9.5541401273885329E-2</v>
+        <v>7.4999999999999956E-2</v>
       </c>
       <c r="K5" s="14">
         <v>1.72</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -9983,7 +9992,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C6" s="13">
         <v>-6.7226890756302393E-2</v>
@@ -9998,13 +10007,13 @@
       <c r="G6" s="11"/>
       <c r="H6" s="35"/>
       <c r="I6" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J6" s="13">
-        <v>3.2786885245901676E-2</v>
+        <v>1.8181818181818299E-2</v>
       </c>
       <c r="K6" s="14">
-        <v>1.26</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>11</v>
@@ -10015,28 +10024,28 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C7" s="13">
-        <v>-0.22222222222222232</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="D7" s="14">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="35"/>
       <c r="I7" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J7" s="13">
-        <v>1.8181818181818299E-2</v>
+        <v>1.6129032258064502E-2</v>
       </c>
       <c r="K7" s="14">
-        <v>1.1200000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>11</v>
@@ -10047,25 +10056,25 @@
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C8" s="18">
-        <v>-0.23497267759562845</v>
+        <v>-0.20903954802259894</v>
       </c>
       <c r="D8" s="19">
         <v>1.4</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
       <c r="I8" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J8" s="18">
-        <v>-1.9354838709677469E-2</v>
+        <v>1.3333333333333419E-2</v>
       </c>
       <c r="K8" s="19">
         <v>1.52</v>
@@ -10094,7 +10103,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -10103,15 +10112,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -10120,10 +10129,10 @@
         <v>6</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -10131,10 +10140,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C11" s="13">
-        <v>1.8666666666666667</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D11" s="14">
         <v>4.3</v>
@@ -10146,16 +10155,16 @@
       <c r="G11" s="11"/>
       <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J11" s="13">
-        <v>0.4285714285714286</v>
+        <v>0.40625</v>
       </c>
       <c r="K11" s="14">
         <v>9</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="16"/>
@@ -10163,10 +10172,10 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="13">
-        <v>0.60000000000000009</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="D12" s="14">
         <v>4</v>
@@ -10195,10 +10204,10 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C13" s="13">
-        <v>0.26874279123414069</v>
+        <v>0.22222222222222232</v>
       </c>
       <c r="D13" s="14">
         <v>11</v>
@@ -10210,13 +10219,13 @@
       <c r="G13" s="11"/>
       <c r="H13" s="43"/>
       <c r="I13" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J13" s="13">
-        <v>0.24570446735395191</v>
+        <v>0.27450980392156876</v>
       </c>
       <c r="K13" s="14">
-        <v>7.25</v>
+        <v>3.25</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>11</v>
@@ -10227,31 +10236,31 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C14" s="13">
-        <v>-5.7591623036649109E-2</v>
+        <v>-4.2553191489361653E-2</v>
       </c>
       <c r="D14" s="14">
         <v>1.8</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
       <c r="H14" s="43"/>
       <c r="I14" s="12" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="J14" s="13">
-        <v>0.24309392265193375</v>
+        <v>0.24570446735395191</v>
       </c>
       <c r="K14" s="14">
-        <v>4.5</v>
+        <v>7.25</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -10259,10 +10268,10 @@
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C15" s="18">
-        <v>-0.18300653594771243</v>
+        <v>-0.15254237288135597</v>
       </c>
       <c r="D15" s="19">
         <v>2.5</v>
@@ -10274,16 +10283,16 @@
       <c r="G15" s="11"/>
       <c r="H15" s="44"/>
       <c r="I15" s="17" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J15" s="18">
-        <v>6.9321533923303758E-2</v>
+        <v>0.21951219512195119</v>
       </c>
       <c r="K15" s="19">
-        <v>7.25</v>
+        <v>4.5</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -10306,7 +10315,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -10315,15 +10324,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -10332,10 +10341,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -10343,10 +10352,10 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" s="13">
-        <v>0</v>
+        <v>-3.703703703703709E-2</v>
       </c>
       <c r="D18" s="14">
         <v>26</v>
@@ -10358,16 +10367,16 @@
       <c r="G18" s="11"/>
       <c r="H18" s="43"/>
       <c r="I18" s="12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J18" s="13">
-        <v>0.64999999999999991</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="K18" s="14">
-        <v>3.3</v>
+        <v>9.25</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -10375,7 +10384,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C19" s="13">
         <v>-0.125</v>
@@ -10384,19 +10393,19 @@
         <v>3.5</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J19" s="13">
-        <v>0.625</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="K19" s="14">
-        <v>26</v>
+        <v>3.3</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>11</v>
@@ -10407,7 +10416,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C20" s="13">
         <v>-0.453125</v>
@@ -10422,13 +10431,13 @@
       <c r="G20" s="11"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="J20" s="13">
-        <v>0.55555555555555558</v>
+        <v>0.625</v>
       </c>
       <c r="K20" s="14">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>11</v>
@@ -10439,7 +10448,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C21" s="13">
         <v>-0.5535714285714286</v>
@@ -10457,13 +10466,13 @@
         <v>200</v>
       </c>
       <c r="J21" s="13">
-        <v>0.14999999999999991</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="K21" s="14">
-        <v>5.75</v>
+        <v>14</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -10471,7 +10480,7 @@
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C22" s="18">
         <v>-0.55555555555555558</v>
@@ -10486,16 +10495,16 @@
       <c r="G22" s="11"/>
       <c r="H22" s="44"/>
       <c r="I22" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J22" s="18">
-        <v>0</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="K22" s="19">
-        <v>26</v>
+        <v>5.75</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -10521,13 +10530,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>6</v>
@@ -10538,13 +10547,13 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>6</v>
@@ -10555,22 +10564,22 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" s="12">
         <v>4</v>
       </c>
       <c r="D25" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="28">
-        <v>1.3574999999999999</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="37"/>
       <c r="I25" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J25" s="12">
         <v>4</v>
@@ -10579,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="28">
-        <v>0.65500000000000003</v>
+        <v>0.6875</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -10587,7 +10596,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
@@ -10596,13 +10605,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="28">
-        <v>1.2650000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="37"/>
       <c r="I26" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J26" s="12">
         <v>4</v>
@@ -10611,7 +10620,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="28">
-        <v>0.62749999999999995</v>
+        <v>0.65749999999999997</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -10619,38 +10628,38 @@
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C27" s="29">
         <v>4</v>
       </c>
       <c r="D27" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="30">
-        <v>1.2200000000000002</v>
+        <v>1.0950000000000002</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="37"/>
       <c r="I27" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J27" s="29">
         <v>4</v>
       </c>
       <c r="K27" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27" s="30">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>214</v>
@@ -10662,15 +10671,15 @@
         <v>1</v>
       </c>
       <c r="E28" s="23">
-        <v>4.9175000000000004</v>
+        <v>5</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J28" s="8">
         <v>4</v>
@@ -10679,7 +10688,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="23">
-        <v>0.69500000000000006</v>
+        <v>0.72249999999999992</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -10687,7 +10696,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" s="12">
         <v>4</v>
@@ -10696,13 +10705,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="28">
-        <v>3.25</v>
+        <v>3.3125</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="37"/>
       <c r="I29" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J29" s="12">
         <v>4</v>
@@ -10711,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="28">
-        <v>0.57499999999999996</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -10719,7 +10728,7 @@
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C30" s="17">
         <v>4</v>
@@ -10728,13 +10737,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="31">
-        <v>0.43250000000000011</v>
+        <v>0.40999999999999992</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="39"/>
       <c r="I30" s="17" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J30" s="17">
         <v>4</v>
@@ -10743,17 +10752,17 @@
         <v>2</v>
       </c>
       <c r="L30" s="31">
-        <v>0.39999999999999991</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C31" s="32">
         <v>4</v>
@@ -10767,10 +10776,10 @@
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J31" s="32">
         <v>4</v>
@@ -10787,7 +10796,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12">
         <v>3</v>
@@ -10796,13 +10805,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="37"/>
       <c r="I32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J32" s="12">
         <v>2</v>
@@ -10811,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -10819,7 +10828,7 @@
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="17">
         <v>3</v>
@@ -10828,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="39"/>
       <c r="I33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33" s="17">
         <v>2</v>
@@ -10843,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -10870,7 +10879,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -10985,11 +10994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9784A57A-AD2C-49F7-913A-8F57D1039F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EDC767-1A7F-49A6-A558-E0DEC324DED3}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10999,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -11017,7 +11026,7 @@
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5" t="e">
         <v>#N/A</v>
@@ -11034,7 +11043,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L2" s="7">
         <v>0.70921985815602839</v>
@@ -11056,7 +11065,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -11073,7 +11082,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -11081,22 +11090,22 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C4" s="13">
-        <v>0.1336898395721926</v>
+        <v>0.11578947368421066</v>
       </c>
       <c r="D4" s="14">
         <v>2.12</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="35"/>
       <c r="I4" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J4" s="13">
         <v>-6.7226890756302393E-2</v>
@@ -11113,22 +11122,22 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C5" s="13">
-        <v>-2.0979020979021046E-2</v>
+        <v>3.4482758620689724E-2</v>
       </c>
       <c r="D5" s="14">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="35"/>
       <c r="I5" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J5" s="13">
         <v>-8.7301587301587324E-2</v>
@@ -11145,22 +11154,22 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C6" s="13">
-        <v>-6.43274853801169E-2</v>
+        <v>-1.4084507042253502E-2</v>
       </c>
       <c r="D6" s="14">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="35"/>
       <c r="I6" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J6" s="13">
         <v>-0.13380281690140838</v>
@@ -11177,22 +11186,22 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C7" s="13">
-        <v>-7.6212471131639759E-2</v>
+        <v>-4.8000000000000043E-2</v>
       </c>
       <c r="D7" s="14">
-        <v>4</v>
+        <v>1.19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="35"/>
       <c r="I7" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J7" s="13">
         <v>-0.21830985915492951</v>
@@ -11201,7 +11210,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -11209,22 +11218,22 @@
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C8" s="18">
-        <v>-0.10638297872340419</v>
+        <v>-0.11111111111111116</v>
       </c>
       <c r="D8" s="19">
-        <v>1.26</v>
+        <v>4</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
       <c r="I8" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J8" s="18">
         <v>-0.22448979591836737</v>
@@ -11233,7 +11242,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -11256,7 +11265,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -11265,15 +11274,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -11282,10 +11291,10 @@
         <v>6</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -11293,10 +11302,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C11" s="13">
-        <v>0.33451957295373669</v>
+        <v>0.31810193321616853</v>
       </c>
       <c r="D11" s="14">
         <v>7.5</v>
@@ -11308,7 +11317,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="43"/>
       <c r="I11" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J11" s="13">
         <v>0.36363636363636354</v>
@@ -11317,7 +11326,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="16"/>
@@ -11325,22 +11334,22 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C12" s="13">
-        <v>5.4421768707483054E-2</v>
+        <v>3.3333333333333437E-2</v>
       </c>
       <c r="D12" s="14">
         <v>3.1</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="43"/>
       <c r="I12" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J12" s="13">
         <v>-2.1739130434782594E-2</v>
@@ -11357,22 +11366,22 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C13" s="13">
-        <v>4.8034934497816595E-2</v>
+        <v>3.0042918454935563E-2</v>
       </c>
       <c r="D13" s="14">
         <v>2.4</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
       <c r="H13" s="43"/>
       <c r="I13" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J13" s="13">
         <v>-5.0632911392405111E-2</v>
@@ -11381,7 +11390,7 @@
         <v>2.25</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -11389,22 +11398,22 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C14" s="13">
-        <v>-0.20418848167539261</v>
+        <v>-0.1914893617021276</v>
       </c>
       <c r="D14" s="14">
         <v>1.52</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
       <c r="H14" s="43"/>
       <c r="I14" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J14" s="13">
         <v>-0.10377358490566047</v>
@@ -11421,22 +11430,22 @@
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C15" s="18">
-        <v>-0.61764705882352944</v>
+        <v>-0.47499999999999998</v>
       </c>
       <c r="D15" s="19">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="44"/>
       <c r="I15" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J15" s="18">
         <v>-0.22131147540983609</v>
@@ -11468,7 +11477,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -11477,15 +11486,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -11494,10 +11503,10 @@
         <v>6</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -11505,7 +11514,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C18" s="13">
         <v>0.375</v>
@@ -11514,13 +11523,13 @@
         <v>5.5</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="43"/>
       <c r="I18" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J18" s="13">
         <v>-2.5000000000000022E-2</v>
@@ -11529,7 +11538,7 @@
         <v>3.9</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -11537,10 +11546,10 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C19" s="13">
-        <v>8.3333333333333259E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="D19" s="14">
         <v>26</v>
@@ -11552,7 +11561,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J19" s="13">
         <v>-5.0000000000000044E-2</v>
@@ -11561,7 +11570,7 @@
         <v>3.8</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -11569,7 +11578,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C20" s="13">
         <v>-9.9999999999999978E-2</v>
@@ -11584,7 +11593,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J20" s="13">
         <v>-0.125</v>
@@ -11601,7 +11610,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C21" s="13">
         <v>-0.25</v>
@@ -11610,13 +11619,13 @@
         <v>8.25</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="43"/>
       <c r="I21" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J21" s="13">
         <v>-0.32499999999999996</v>
@@ -11625,7 +11634,7 @@
         <v>5.4</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -11633,13 +11642,13 @@
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C22" s="18">
-        <v>-0.80882352941176472</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D22" s="19">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>11</v>
@@ -11648,7 +11657,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="44"/>
       <c r="I22" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J22" s="18">
         <v>-0.43478260869565222</v>
@@ -11683,13 +11692,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>6</v>
@@ -11700,13 +11709,13 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>6</v>
@@ -11717,7 +11726,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C25" s="12">
         <v>5</v>
@@ -11726,13 +11735,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="28">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="37"/>
       <c r="I25" s="12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J25" s="12">
         <v>4</v>
@@ -11749,7 +11758,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
@@ -11758,13 +11767,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="28">
-        <v>0.61250000000000004</v>
+        <v>0.63500000000000023</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="37"/>
       <c r="I26" s="12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J26" s="12">
         <v>4</v>
@@ -11781,7 +11790,7 @@
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C27" s="29">
         <v>4</v>
@@ -11790,13 +11799,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="30">
-        <v>-2.7499999999999969E-2</v>
+        <v>-1.2499999999999956E-2</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="37"/>
       <c r="I27" s="29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J27" s="29">
         <v>4</v>
@@ -11812,10 +11821,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C28" s="8">
         <v>4</v>
@@ -11824,15 +11833,15 @@
         <v>2</v>
       </c>
       <c r="E28" s="23">
-        <v>1.4350000000000001</v>
+        <v>1.4649999999999999</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J28" s="8">
         <v>4</v>
@@ -11849,7 +11858,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C29" s="12">
         <v>5</v>
@@ -11858,13 +11867,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="28">
-        <v>0.35999999999999988</v>
+        <v>0.254</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="37"/>
       <c r="I29" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J29" s="12">
         <v>4</v>
@@ -11881,7 +11890,7 @@
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38"/>
       <c r="B30" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="17">
         <v>3</v>
@@ -11890,13 +11899,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="39"/>
       <c r="I30" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J30" s="17">
         <v>4</v>
@@ -11912,10 +11921,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="32">
         <v>3</v>
@@ -11924,15 +11933,15 @@
         <v>0</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J31" s="32">
         <v>4</v>
@@ -11949,7 +11958,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12">
         <v>3</v>
@@ -11958,13 +11967,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="37"/>
       <c r="I32" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J32" s="12">
         <v>4</v>
@@ -11981,7 +11990,7 @@
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="17">
         <v>3</v>
@@ -11990,13 +11999,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="39"/>
       <c r="I33" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33" s="17">
         <v>2</v>
@@ -12005,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -12032,7 +12041,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
